--- a/spliced/walkingToRunning/2023-03-30_14-23-33/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-30_14-23-33/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1337572634220123</v>
+        <v>0.6115283966064453</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.411193370819092</v>
+        <v>-0.0169776529073715</v>
       </c>
       <c r="C2" t="n">
-        <v>0.369513601064682</v>
+        <v>-0.1087901294231414</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1215067282319068</v>
+        <v>0.1337572634220123</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0643819198012352</v>
+        <v>-4.411193370819092</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.924533367156982</v>
+        <v>0.369513601064682</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1854225993156433</v>
+        <v>0.1215067282319068</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.3285675048828125</v>
+        <v>-0.0643819198012352</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.531450867652893</v>
+        <v>-1.924533367156982</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.6855642795562744</v>
+        <v>0.1854225993156433</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.6710500121116638</v>
+        <v>-0.3285675048828125</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.072854518890381</v>
+        <v>-1.531450867652893</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.6323010325431824</v>
+        <v>0.6855642795562744</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.309925377368927</v>
+        <v>-0.6710500121116638</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8337026238441467</v>
+        <v>-1.072854518890381</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.1245693638920784</v>
+        <v>0.6323010325431824</v>
       </c>
       <c r="B7" t="n">
-        <v>1.384910345077515</v>
+        <v>-0.309925377368927</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5511412024497986</v>
+        <v>-0.8337026238441467</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.438040494918823</v>
+        <v>-0.1245693638920784</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.918724000453949</v>
+        <v>1.384910345077515</v>
       </c>
       <c r="C8" t="n">
-        <v>3.847602128982544</v>
+        <v>0.5511412024497986</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.082026958465576</v>
+        <v>-1.438040494918823</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.2300305366516113</v>
+        <v>-0.918724000453949</v>
       </c>
       <c r="C9" t="n">
-        <v>3.824166297912598</v>
+        <v>3.847602128982544</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.2960769534111023</v>
+        <v>-4.082026958465576</v>
       </c>
       <c r="B10" t="n">
-        <v>3.580953121185303</v>
+        <v>-0.2300305366516113</v>
       </c>
       <c r="C10" t="n">
-        <v>3.93761682510376</v>
+        <v>3.824166297912598</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.565472722053528</v>
+        <v>-0.2960769534111023</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.121656894683838</v>
+        <v>3.580953121185303</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.981808423995972</v>
+        <v>3.93761682510376</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.818506956100464</v>
+        <v>1.565472722053528</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.21461820602417</v>
+        <v>-1.121656894683838</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.720852375030518</v>
+        <v>-2.981808423995972</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.237405300140381</v>
+        <v>3.818506956100464</v>
       </c>
       <c r="B13" t="n">
-        <v>8.023105621337891</v>
+        <v>-2.21461820602417</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.110422134399414</v>
+        <v>-4.720852375030518</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.717672348022461</v>
+        <v>3.237405300140381</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.550425887107849</v>
+        <v>8.023105621337891</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.160240173339844</v>
+        <v>-2.110422134399414</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-2.741924047470093</v>
+        <v>-1.717672348022461</v>
       </c>
       <c r="B15" t="n">
-        <v>1.798233032226562</v>
+        <v>-1.550425887107849</v>
       </c>
       <c r="C15" t="n">
-        <v>3.91737699508667</v>
+        <v>-3.160240173339844</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-11.71304893493652</v>
+        <v>-2.741924047470093</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7414906620979309</v>
+        <v>1.798233032226562</v>
       </c>
       <c r="C16" t="n">
-        <v>4.010587692260742</v>
+        <v>3.91737699508667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.221958875656128</v>
+        <v>-11.71304893493652</v>
       </c>
       <c r="B17" t="n">
-        <v>-8.187023162841797</v>
+        <v>0.7414906620979309</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.072072505950928</v>
+        <v>4.010587692260742</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4.388423442840576</v>
+        <v>3.221958875656128</v>
       </c>
       <c r="B18" t="n">
-        <v>-3.836483240127564</v>
+        <v>-8.187023162841797</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.924250066280365</v>
+        <v>-2.072072505950928</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8.48330020904541</v>
+        <v>4.388423442840576</v>
       </c>
       <c r="B19" t="n">
-        <v>6.056095123291016</v>
+        <v>-3.836483240127564</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.273656845092773</v>
+        <v>-0.924250066280365</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.490405559539795</v>
+        <v>8.48330020904541</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0469382144510746</v>
+        <v>6.056095123291016</v>
       </c>
       <c r="C20" t="n">
-        <v>-4.09820556640625</v>
+        <v>-1.273656845092773</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>3.490405559539795</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0469382144510746</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-4.09820556640625</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>-5.684184551239014</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>-0.3173822164535522</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>3.06037163734436</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-11.22835350036621</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-15.27582550048828</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.236372590065002</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4.94928503036499</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-15.6870174407959</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.060655117034912</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3.654456377029419</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-6.942261695861816</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.724813222885132</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6.618554592132568</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.984438896179199</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-4.156262397766113</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-4.189085960388184</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.281579732894898</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.08831787109375</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-3.292665958404541</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.869073033332825</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.439073085784912</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-4.698282241821289</v>
+      </c>
+      <c r="B29" t="n">
+        <v>7.67050313949585</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.46966552734375</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1.039232015609741</v>
+      </c>
+      <c r="B30" t="n">
+        <v>13.21467208862305</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-9.619471549987791</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5.204416275024414</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-5.015731334686279</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.8006793856620789</v>
       </c>
     </row>
   </sheetData>
